--- a/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
+++ b/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Json\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109706A1-7E2F-4E2A-B798-8A8B5A8B6A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94D374-6744-49FA-8C4D-846BA4014BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>ttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +559,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,16 +597,16 @@
       <c r="A5">
         <v>33</v>
       </c>
-      <c r="B5">
-        <v>122</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22</v>
       </c>
-      <c r="B6">
-        <v>12323</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
+++ b/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94D374-6744-49FA-8C4D-846BA4014BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB9E97-3AEA-4CF5-B6FA-7C5A0863BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -34,8 +34,109 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>UISU</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8E3A6E8B-EB07-41C1-8B5E-BE438C19B83A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: NONE
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">선택지
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내용</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +182,42 @@
   </si>
   <si>
     <t>반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워반가워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogueType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거이거 어때보여요 힘들어요 살려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11이가 얘기합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지입니다만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 선택지입니다만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 선택이에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:DialogueType:None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +243,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,70 +707,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>34543</v>
+        <v>12312312312</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>12312312312</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
+++ b/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB9E97-3AEA-4CF5-B6FA-7C5A0863BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11261D-D577-43DA-A938-3306022401EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,15 +209,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3번 선택이에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:DialogueType:None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 내용1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 내용2</t>
+  </si>
+  <si>
+    <t>일반 내용3</t>
+  </si>
+  <si>
+    <t>일반 내용4</t>
+  </si>
+  <si>
+    <t>일반 내용5</t>
+  </si>
+  <si>
+    <t>일반 내용6</t>
+  </si>
+  <si>
+    <t>일반 내용7</t>
+  </si>
+  <si>
+    <t>일반 내용8</t>
+  </si>
+  <si>
+    <t>3번 선택지(내용 빔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 선택지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 12</t>
+  </si>
+  <si>
+    <t>1번 선택지 13</t>
+  </si>
+  <si>
+    <t>1번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -859,7 +906,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -867,7 +914,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -877,11 +924,163 @@
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>12312312312</v>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
+++ b/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11261D-D577-43DA-A938-3306022401EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB56C852-75EA-437A-893A-63E002E31787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -62,7 +62,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대화</t>
+          <t xml:space="preserve">대화
+</t>
         </r>
         <r>
           <rPr>
@@ -72,8 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-2: </t>
+          <t xml:space="preserve">2: </t>
         </r>
         <r>
           <rPr>
@@ -84,8 +84,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">선택지
-</t>
+          <t>선택지</t>
         </r>
         <r>
           <rPr>
@@ -95,7 +94,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">3: </t>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
         </r>
         <r>
           <rPr>
@@ -127,7 +127,72 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>내용</t>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">이동
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5: Save</t>
         </r>
       </text>
     </comment>
@@ -136,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +311,6 @@
     <t>일반 내용8</t>
   </si>
   <si>
-    <t>3번 선택지(내용 빔)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2번 선택지 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +326,26 @@
   </si>
   <si>
     <t>1번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브하는 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번  선택지(세이브)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShadowGameTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 선택지(미니게임 1로 맵 이동)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,14 +836,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -845,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -869,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,7 +959,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -893,15 +975,15 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -909,56 +991,47 @@
         <v>19</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -966,10 +1039,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -977,10 +1050,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -988,10 +1061,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -999,88 +1072,121 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>18</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
+++ b/Assets/Editor/JsonUtility/Stage1/ep00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB9E97-3AEA-4CF5-B6FA-7C5A0863BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB56C852-75EA-437A-893A-63E002E31787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -62,7 +62,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대화</t>
+          <t xml:space="preserve">대화
+</t>
         </r>
         <r>
           <rPr>
@@ -72,8 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-2: </t>
+          <t xml:space="preserve">2: </t>
         </r>
         <r>
           <rPr>
@@ -84,8 +84,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">선택지
-</t>
+          <t>선택지</t>
         </r>
         <r>
           <rPr>
@@ -95,7 +94,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">3: </t>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
         </r>
         <r>
           <rPr>
@@ -127,7 +127,72 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>내용</t>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">이동
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5: Save</t>
         </r>
       </text>
     </comment>
@@ -136,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,15 +274,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3번 선택이에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:DialogueType:None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 내용1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 내용2</t>
+  </si>
+  <si>
+    <t>일반 내용3</t>
+  </si>
+  <si>
+    <t>일반 내용4</t>
+  </si>
+  <si>
+    <t>일반 내용5</t>
+  </si>
+  <si>
+    <t>일반 내용6</t>
+  </si>
+  <si>
+    <t>일반 내용7</t>
+  </si>
+  <si>
+    <t>일반 내용8</t>
+  </si>
+  <si>
+    <t>2번 선택지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 선택지 12</t>
+  </si>
+  <si>
+    <t>1번 선택지 13</t>
+  </si>
+  <si>
+    <t>1번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 141번 선택지 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브하는 친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번  선택지(세이브)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다세이브합시다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShadowGameTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 선택지(미니게임 1로 맵 이동)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,14 +836,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -798,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +959,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,41 +975,217 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>12312312312</v>
-      </c>
-      <c r="C18">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
